--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13765,6 +13765,324 @@
         <v>385.8036363636364</v>
       </c>
       <c r="H468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>368.6868421052632</v>
+      </c>
+      <c r="C469" t="n">
+        <v>361.5541379310345</v>
+      </c>
+      <c r="D469" t="n">
+        <v>373.2466666666666</v>
+      </c>
+      <c r="E469" t="n">
+        <v>373.4881481481481</v>
+      </c>
+      <c r="F469" t="n">
+        <v>380.6048387096774</v>
+      </c>
+      <c r="G469" t="n">
+        <v>378.5754545454545</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>377.1552631578948</v>
+      </c>
+      <c r="C470" t="n">
+        <v>369.28</v>
+      </c>
+      <c r="D470" t="n">
+        <v>376.1233333333333</v>
+      </c>
+      <c r="E470" t="n">
+        <v>381.2562962962963</v>
+      </c>
+      <c r="F470" t="n">
+        <v>375.481935483871</v>
+      </c>
+      <c r="G470" t="n">
+        <v>382.7127272727273</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>460.0363157894737</v>
+      </c>
+      <c r="C471" t="n">
+        <v>360.3241379310345</v>
+      </c>
+      <c r="D471" t="n">
+        <v>370.51</v>
+      </c>
+      <c r="E471" t="n">
+        <v>379.5455555555556</v>
+      </c>
+      <c r="F471" t="n">
+        <v>379.4109677419355</v>
+      </c>
+      <c r="G471" t="n">
+        <v>376.61</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>468.8168421052632</v>
+      </c>
+      <c r="C472" t="n">
+        <v>364.7624137931034</v>
+      </c>
+      <c r="D472" t="n">
+        <v>375.09</v>
+      </c>
+      <c r="E472" t="n">
+        <v>384.1011111111111</v>
+      </c>
+      <c r="F472" t="n">
+        <v>380.8758064516129</v>
+      </c>
+      <c r="G472" t="n">
+        <v>392.8390909090909</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>455.7478947368421</v>
+      </c>
+      <c r="C473" t="n">
+        <v>370.9993103448276</v>
+      </c>
+      <c r="D473" t="n">
+        <v>381.2933333333333</v>
+      </c>
+      <c r="E473" t="n">
+        <v>389.7396296296296</v>
+      </c>
+      <c r="F473" t="n">
+        <v>392.7412903225807</v>
+      </c>
+      <c r="G473" t="n">
+        <v>397.3445454545454</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>440.0447368421053</v>
+      </c>
+      <c r="C474" t="n">
+        <v>363.0610344827586</v>
+      </c>
+      <c r="D474" t="n">
+        <v>373.4166666666667</v>
+      </c>
+      <c r="E474" t="n">
+        <v>381.9459259259259</v>
+      </c>
+      <c r="F474" t="n">
+        <v>380.9854838709678</v>
+      </c>
+      <c r="G474" t="n">
+        <v>375.4790909090909</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="n">
+        <v>368.6365517241379</v>
+      </c>
+      <c r="D475" t="n">
+        <v>378.76</v>
+      </c>
+      <c r="E475" t="n">
+        <v>386.2411111111111</v>
+      </c>
+      <c r="F475" t="n">
+        <v>383.7496774193549</v>
+      </c>
+      <c r="G475" t="n">
+        <v>386.3481818181818</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>438.8647368421053</v>
+      </c>
+      <c r="C476" t="n">
+        <v>365.8713793103448</v>
+      </c>
+      <c r="D476" t="n">
+        <v>374.97</v>
+      </c>
+      <c r="E476" t="n">
+        <v>385.4233333333333</v>
+      </c>
+      <c r="F476" t="n">
+        <v>383.0612903225807</v>
+      </c>
+      <c r="G476" t="n">
+        <v>386.7963636363637</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="n">
+        <v>367.11</v>
+      </c>
+      <c r="D477" t="n">
+        <v>380.1533333333333</v>
+      </c>
+      <c r="E477" t="n">
+        <v>384.1962962962963</v>
+      </c>
+      <c r="F477" t="n">
+        <v>380.2719354838709</v>
+      </c>
+      <c r="G477" t="n">
+        <v>386.5427272727272</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>466.44</v>
+      </c>
+      <c r="C478" t="n">
+        <v>366.3493103448276</v>
+      </c>
+      <c r="D478" t="n">
+        <v>376.2233333333333</v>
+      </c>
+      <c r="E478" t="n">
+        <v>382.6651851851852</v>
+      </c>
+      <c r="F478" t="n">
+        <v>387.8083870967742</v>
+      </c>
+      <c r="G478" t="n">
+        <v>386.0254545454546</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="n">
+        <v>384.8987096774193</v>
+      </c>
+      <c r="G479" t="n">
+        <v>382.4581818181818</v>
+      </c>
+      <c r="H479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13781,7 +14099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19229,6 +19547,116 @@
       </c>
       <c r="B544" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -19397,28 +19825,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2429150841802541</v>
+        <v>-0.1221989287458232</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001881090981559308</v>
+        <v>0.0004944898919878593</v>
       </c>
       <c r="M2" t="n">
-        <v>39.66861331019848</v>
+        <v>39.82788645984493</v>
       </c>
       <c r="N2" t="n">
-        <v>1756.778706796823</v>
+        <v>1757.856108736252</v>
       </c>
       <c r="O2" t="n">
-        <v>41.91394406157482</v>
+        <v>41.92679463942184</v>
       </c>
       <c r="P2" t="n">
-        <v>419.0945876653307</v>
+        <v>418.000823000192</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19474,28 +19902,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1046215096591044</v>
+        <v>0.07454919231259773</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01262256266546691</v>
+        <v>0.006598844786589453</v>
       </c>
       <c r="M3" t="n">
-        <v>5.559231374139874</v>
+        <v>5.59104234683061</v>
       </c>
       <c r="N3" t="n">
-        <v>48.30661143644115</v>
+        <v>48.49022583864656</v>
       </c>
       <c r="O3" t="n">
-        <v>6.950295780500364</v>
+        <v>6.963492359344309</v>
       </c>
       <c r="P3" t="n">
-        <v>370.1562371204612</v>
+        <v>370.431728463018</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19551,28 +19979,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1481085444720554</v>
+        <v>0.1142237174632428</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01384731325016741</v>
+        <v>0.0085441802715297</v>
       </c>
       <c r="M4" t="n">
-        <v>7.555050887578289</v>
+        <v>7.545193804208382</v>
       </c>
       <c r="N4" t="n">
-        <v>88.27927778189937</v>
+        <v>87.83443802083217</v>
       </c>
       <c r="O4" t="n">
-        <v>9.395705283899627</v>
+        <v>9.372002882032856</v>
       </c>
       <c r="P4" t="n">
-        <v>380.1479524251413</v>
+        <v>380.4594545420172</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19628,28 +20056,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08362542939017695</v>
+        <v>0.07214518944958137</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007574919744505748</v>
+        <v>0.005873014840803048</v>
       </c>
       <c r="M5" t="n">
-        <v>5.419390357920027</v>
+        <v>5.382663892256577</v>
       </c>
       <c r="N5" t="n">
-        <v>51.42620371868782</v>
+        <v>50.81346784128712</v>
       </c>
       <c r="O5" t="n">
-        <v>7.171206573421784</v>
+        <v>7.128356601720141</v>
       </c>
       <c r="P5" t="n">
-        <v>383.4305347084571</v>
+        <v>383.5355664785981</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19705,28 +20133,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001761009399185464</v>
+        <v>-0.003592013999067252</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K6" t="n">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L6" t="n">
-        <v>3.352310483983878e-06</v>
+        <v>1.458531206133262e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>5.504248061894865</v>
+        <v>5.45880085737901</v>
       </c>
       <c r="N6" t="n">
-        <v>51.99299228641961</v>
+        <v>51.21706150791402</v>
       </c>
       <c r="O6" t="n">
-        <v>7.21061663704427</v>
+        <v>7.156609637804344</v>
       </c>
       <c r="P6" t="n">
-        <v>383.8206666447788</v>
+        <v>383.869601770536</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19782,28 +20210,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07657748715448232</v>
+        <v>-0.07575625832309235</v>
       </c>
       <c r="J7" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006167643777855059</v>
+        <v>0.006250088312139912</v>
       </c>
       <c r="M7" t="n">
-        <v>5.712234881401767</v>
+        <v>5.695520870459282</v>
       </c>
       <c r="N7" t="n">
-        <v>53.63795594171926</v>
+        <v>53.28892764092285</v>
       </c>
       <c r="O7" t="n">
-        <v>7.323793821628191</v>
+        <v>7.29992655037863</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4822296462376</v>
+        <v>386.4745425278221</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19840,7 +20268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38068,6 +38496,444 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-34.98544894847773,173.44770582936803</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-34.986039161042044,173.44822289471446</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-34.98629766530728,173.44905300293578</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-34.986394888818346,173.44991201876215</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-34.986283614267414,173.45077113701788</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-34.98611465316483,173.45160260434713</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-34.98539908290079,173.44777609932004</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.98598502753349,173.44827617723033</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.98627305951356,173.449062980065</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.98632488250379,173.44991493787325</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.986329141382754,173.45078064451837</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.98607871841563,173.45159042329965</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.98491104273886,173.44846383194545</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.986047779394056,173.4482144118366</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.9863210735992,173.4490435113624</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.98634029964732,173.44991429501226</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.986294224169534,173.45077335269974</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.98613172434158,173.45160839108448</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.98485933890363,173.4485366907538</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.98601668132323,173.44824502105763</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.986281898211296,173.44905939616064</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-34.98629924511908,173.44991600689536</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.98628120618371,173.4507706341342</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.985990764734986,173.45156060908738</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.98493629494685,173.44842824757055</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.98597298068035,173.4482880346912</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.986228837511305,173.44908091113643</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.98624843096114,173.4499181257314</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.986175757914914,173.45074861324696</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.985951632095265,173.4515473440722</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-34.98502876232002,173.44829794603254</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.986028602533175,173.44823328724817</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.986296211198976,173.4490535925461</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.986318667582516,173.44991519702174</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.98628023148315,173.45077043058606</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.98614154697967,173.45161172073466</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.98598953604262,173.44827173959968</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-34.98625050657789,173.4490721247982</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-34.98627995950401,173.4499168110624</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-34.986255666162336,173.45076530057574</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-34.986047142263615,173.451579719725</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-34.98503571069391,173.4482881546261</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-34.98600891103255,173.4482526691975</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-34.98628292464068,173.44905897996523</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-34.986287329292544,173.44991650375871</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-34.986261783841755,173.45076657813902</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-34.98604324952961,173.45157840018015</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.9860002322745,173.44826121152119</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.986238588591355,173.44907695728477</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-34.986298387313084,173.44991604266397</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-34.986286572770254,173.45077175484644</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-34.98604545251701,173.45157914694082</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-34.98487333486308,173.4485169682682</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.986005562269085,173.44825596531703</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.98627220415571,173.44906332689442</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-34.986312185639925,173.44991546730438</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-34.98621959650758,173.45075776810515</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-34.98604994534793,173.45158066990447</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-34.986245454740526,173.4507631681112</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-34.986080929298936,173.45159117273755</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -19670,7 +19670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19761,35 +19761,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19848,27 +19853,28 @@
       <c r="P2" t="n">
         <v>418.000823000192</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.44464642701334 -34.987619890378795, 173.4523411596097 -34.98215936856584)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4446464270133</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.9876198903788</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.4523411596097</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.98215936856584</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.4484937933115</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.98488962947232</v>
       </c>
     </row>
@@ -19925,27 +19931,28 @@
       <c r="P3" t="n">
         <v>370.431728463018</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.44572930643903 -34.98857246958412, 173.45212280817057 -34.98207671120251)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.445729306439</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.98857246958412</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.4521228081706</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.98207671120251</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.4489260573048</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.98532459039332</v>
       </c>
     </row>
@@ -20002,27 +20009,28 @@
       <c r="P4" t="n">
         <v>380.4594545420172</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.4477584232817 -34.989490252497426, 173.4509721635771 -34.98156430956409)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.4477584232817</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.98949025249743</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.4509721635771</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.98156430956409</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.4493652934294</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.98552728103076</v>
       </c>
     </row>
@@ -20079,27 +20087,28 @@
       <c r="P5" t="n">
         <v>383.5355664785981</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.4497716644834 -34.98976075164726, 173.45011980899866 -34.98141138986606)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.4497716644834</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.98976075164726</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.4501198089987</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.98141138986606</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.449945736741</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.98558607075666</v>
       </c>
     </row>
@@ -20156,27 +20165,28 @@
       <c r="P6" t="n">
         <v>383.869601770536</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.45147752384796 -34.989666036961104, 173.4497580554252 -34.981432122100166)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.451477523848</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.9896660369611</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.4497580554252</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.98143212210017</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.4506177896366</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.98554907953064</v>
       </c>
     </row>
@@ -20233,27 +20243,28 @@
       <c r="P7" t="n">
         <v>386.4745425278221</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.45271726010057 -34.98940280658655, 173.44998925468278 -34.98135489358253)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.4527172601006</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.98940280658655</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.4499892546828</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.98135489358253</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.4513532573917</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.98537885008454</v>
       </c>
     </row>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H479"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14083,6 +14083,180 @@
         <v>382.4581818181818</v>
       </c>
       <c r="H479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>461.7468421052632</v>
+      </c>
+      <c r="C480" t="n">
+        <v>368.1424137931035</v>
+      </c>
+      <c r="D480" t="n">
+        <v>367.29</v>
+      </c>
+      <c r="E480" t="n">
+        <v>374.9511111111111</v>
+      </c>
+      <c r="F480" t="n">
+        <v>371.945806451613</v>
+      </c>
+      <c r="G480" t="n">
+        <v>374.4190909090909</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="n">
+        <v>370.3889655172414</v>
+      </c>
+      <c r="D481" t="n">
+        <v>379.93</v>
+      </c>
+      <c r="E481" t="n">
+        <v>383.7566666666667</v>
+      </c>
+      <c r="F481" t="n">
+        <v>381.1383870967742</v>
+      </c>
+      <c r="G481" t="n">
+        <v>386.4663636363636</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="n">
+        <v>357.8396551724138</v>
+      </c>
+      <c r="D482" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="E482" t="n">
+        <v>370.3944444444445</v>
+      </c>
+      <c r="F482" t="n">
+        <v>370.6032258064516</v>
+      </c>
+      <c r="G482" t="n">
+        <v>365.9063636363636</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>477.9505263157895</v>
+      </c>
+      <c r="C483" t="n">
+        <v>371.3072413793104</v>
+      </c>
+      <c r="D483" t="n">
+        <v>393.09</v>
+      </c>
+      <c r="E483" t="n">
+        <v>382.2933333333333</v>
+      </c>
+      <c r="F483" t="n">
+        <v>391.3974193548388</v>
+      </c>
+      <c r="G483" t="n">
+        <v>387.7472727272727</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="n">
+        <v>371.3144827586207</v>
+      </c>
+      <c r="D484" t="n">
+        <v>376.0333333333333</v>
+      </c>
+      <c r="E484" t="n">
+        <v>379.5674074074074</v>
+      </c>
+      <c r="F484" t="n">
+        <v>376.7196774193548</v>
+      </c>
+      <c r="G484" t="n">
+        <v>385.3363636363636</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>485.4357894736842</v>
+      </c>
+      <c r="C485" t="n">
+        <v>374.6065517241379</v>
+      </c>
+      <c r="D485" t="n">
+        <v>380.5266666666667</v>
+      </c>
+      <c r="E485" t="n">
+        <v>388.2148148148148</v>
+      </c>
+      <c r="F485" t="n">
+        <v>384.8577419354838</v>
+      </c>
+      <c r="G485" t="n">
+        <v>387.2054545454546</v>
+      </c>
+      <c r="H485" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14099,7 +14273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19657,6 +19831,66 @@
       </c>
       <c r="B555" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -19830,28 +20064,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1221989287458232</v>
+        <v>0.001627177947570833</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004944898919878593</v>
+        <v>8.788731209463663e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>39.82788645984493</v>
+        <v>40.12949438119418</v>
       </c>
       <c r="N2" t="n">
-        <v>1757.856108736252</v>
+        <v>1777.553042642066</v>
       </c>
       <c r="O2" t="n">
-        <v>41.92679463942184</v>
+        <v>42.1610370204774</v>
       </c>
       <c r="P2" t="n">
-        <v>418.000823000192</v>
+        <v>416.869717928329</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19908,28 +20142,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07454919231259773</v>
+        <v>0.06603931926321392</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K3" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006598844786589453</v>
+        <v>0.005277623689635136</v>
       </c>
       <c r="M3" t="n">
-        <v>5.59104234683061</v>
+        <v>5.572224055146831</v>
       </c>
       <c r="N3" t="n">
-        <v>48.49022583864656</v>
+        <v>48.3686057482803</v>
       </c>
       <c r="O3" t="n">
-        <v>6.963492359344309</v>
+        <v>6.954754183167101</v>
       </c>
       <c r="P3" t="n">
-        <v>370.431728463018</v>
+        <v>370.5102627803149</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19986,28 +20220,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1142237174632428</v>
+        <v>0.1008383869059217</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0085441802715297</v>
+        <v>0.006763698679804864</v>
       </c>
       <c r="M4" t="n">
-        <v>7.545193804208382</v>
+        <v>7.550967763838524</v>
       </c>
       <c r="N4" t="n">
-        <v>87.83443802083217</v>
+        <v>87.9249401808799</v>
       </c>
       <c r="O4" t="n">
-        <v>9.372002882032856</v>
+        <v>9.376829964379214</v>
       </c>
       <c r="P4" t="n">
-        <v>380.4594545420172</v>
+        <v>380.5835628471163</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20064,28 +20298,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07214518944958137</v>
+        <v>0.05839951126150718</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005873014840803048</v>
+        <v>0.003902748667247602</v>
       </c>
       <c r="M5" t="n">
-        <v>5.382663892256577</v>
+        <v>5.399886798895126</v>
       </c>
       <c r="N5" t="n">
-        <v>50.81346784128712</v>
+        <v>50.97825991129231</v>
       </c>
       <c r="O5" t="n">
-        <v>7.128356601720141</v>
+        <v>7.139906155636242</v>
       </c>
       <c r="P5" t="n">
-        <v>383.5355664785981</v>
+        <v>383.662517184758</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20142,28 +20376,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.003592013999067252</v>
+        <v>-0.01437858875985399</v>
       </c>
       <c r="J6" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K6" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L6" t="n">
-        <v>1.458531206133262e-05</v>
+        <v>0.0002359985517476071</v>
       </c>
       <c r="M6" t="n">
-        <v>5.45880085737901</v>
+        <v>5.484271995201867</v>
       </c>
       <c r="N6" t="n">
-        <v>51.21706150791402</v>
+        <v>51.47740764530203</v>
       </c>
       <c r="O6" t="n">
-        <v>7.156609637804344</v>
+        <v>7.174775790594577</v>
       </c>
       <c r="P6" t="n">
-        <v>383.869601770536</v>
+        <v>383.9693497367639</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20220,28 +20454,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07575625832309235</v>
+        <v>-0.08400939909007471</v>
       </c>
       <c r="J7" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K7" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006250088312139912</v>
+        <v>0.007737636348535082</v>
       </c>
       <c r="M7" t="n">
-        <v>5.695520870459282</v>
+        <v>5.705573990852551</v>
       </c>
       <c r="N7" t="n">
-        <v>53.28892764092285</v>
+        <v>53.62106929626908</v>
       </c>
       <c r="O7" t="n">
-        <v>7.29992655037863</v>
+        <v>7.322640868994538</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4745425278221</v>
+        <v>386.550881523581</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20279,7 +20513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H479"/>
+  <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38945,6 +39179,246 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-34.98490097036534,173.4484780255106</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.9859929983649,173.44826833170828</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-34.98634861611952,173.44903234343852</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-34.98638170464075,173.44991256851404</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-34.98636056687406,173.45078720716054</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-34.986150753728765,173.45161484161332</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.98597725724087,173.44828382536434</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.986240498890645,173.4490761826997</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-34.98630234924197,173.44991587746034</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-34.986278872635914,173.45077014681598</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-34.98604611578202,173.451579371772</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-34.98606518764183,173.44819727722646</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-34.986314743951525,173.44904607790286</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-34.9864227691817,173.44991085621044</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-34.98637249835492,173.45078969883465</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-34.98622469197437,173.45163990502462</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-34.984805555463836,173.44861247988862</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-34.98597082307094,173.44829015837968</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-34.98612793378315,173.4491218253538</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-34.98631553675753,173.4499153275702</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-34.986187700864086,173.45075110730423</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-34.98603499030082,173.45157560049708</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-34.98597077233209,173.44829020832086</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-34.98627382933562,173.44906266791853</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-34.9863401027191,173.44991430322375</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-34.98631814160062,173.45077834741522</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-34.9860559305251,173.45158269873858</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-34.98476147866947,173.44867459074436</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.98594770547989,173.4483129125175</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.98623539525522,173.4490782521135</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-34.98626217254606,173.44991755273844</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-34.98624581881987,173.45076324414237</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-34.98603969632412,173.4515771957275</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14259,6 +14259,152 @@
       <c r="H485" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>480.0031578947368</v>
+      </c>
+      <c r="C486" t="n">
+        <v>384.3165517241379</v>
+      </c>
+      <c r="D486" t="n">
+        <v>394.07</v>
+      </c>
+      <c r="E486" t="n">
+        <v>398.9666666666667</v>
+      </c>
+      <c r="F486" t="n">
+        <v>393.5467741935484</v>
+      </c>
+      <c r="G486" t="n">
+        <v>386.3090909090909</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="n">
+        <v>367.3813793103448</v>
+      </c>
+      <c r="D487" t="n">
+        <v>375.7</v>
+      </c>
+      <c r="E487" t="n">
+        <v>386.8433333333333</v>
+      </c>
+      <c r="F487" t="n">
+        <v>384.5812903225807</v>
+      </c>
+      <c r="G487" t="n">
+        <v>381.7663636363636</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="n">
+        <v>368.5555172413793</v>
+      </c>
+      <c r="D488" t="n">
+        <v>380.6233333333333</v>
+      </c>
+      <c r="E488" t="n">
+        <v>389.5051851851852</v>
+      </c>
+      <c r="F488" t="n">
+        <v>382.6041935483871</v>
+      </c>
+      <c r="G488" t="n">
+        <v>385.1690909090909</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>473.04</v>
+      </c>
+      <c r="C489" t="n">
+        <v>376.0996551724138</v>
+      </c>
+      <c r="D489" t="n">
+        <v>383.2166666666667</v>
+      </c>
+      <c r="E489" t="n">
+        <v>390.2525925925926</v>
+      </c>
+      <c r="F489" t="n">
+        <v>386.4841935483871</v>
+      </c>
+      <c r="G489" t="n">
+        <v>390.4227272727272</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>461.2905263157895</v>
+      </c>
+      <c r="C490" t="n">
+        <v>380.9268965517242</v>
+      </c>
+      <c r="D490" t="n">
+        <v>392.6566666666667</v>
+      </c>
+      <c r="E490" t="n">
+        <v>399.8259259259259</v>
+      </c>
+      <c r="F490" t="n">
+        <v>393.3616129032258</v>
+      </c>
+      <c r="G490" t="n">
+        <v>392.93</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19891,6 +20037,56 @@
       </c>
       <c r="B561" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -20064,28 +20260,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001627177947570833</v>
+        <v>0.1113517325038382</v>
       </c>
       <c r="J2" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>8.788731209463663e-08</v>
+        <v>0.0004138051447405422</v>
       </c>
       <c r="M2" t="n">
-        <v>40.12949438119418</v>
+        <v>40.33578643349926</v>
       </c>
       <c r="N2" t="n">
-        <v>1777.553042642066</v>
+        <v>1789.812971046663</v>
       </c>
       <c r="O2" t="n">
-        <v>42.1610370204774</v>
+        <v>42.30618123923102</v>
       </c>
       <c r="P2" t="n">
-        <v>416.869717928329</v>
+        <v>415.8608253644534</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20142,28 +20338,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06603931926321392</v>
+        <v>0.07267394329132466</v>
       </c>
       <c r="J3" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005277623689635136</v>
+        <v>0.006453583889677761</v>
       </c>
       <c r="M3" t="n">
-        <v>5.572224055146831</v>
+        <v>5.583534176975964</v>
       </c>
       <c r="N3" t="n">
-        <v>48.3686057482803</v>
+        <v>48.43571330427508</v>
       </c>
       <c r="O3" t="n">
-        <v>6.954754183167101</v>
+        <v>6.959577092343692</v>
       </c>
       <c r="P3" t="n">
-        <v>370.5102627803149</v>
+        <v>370.4483893852449</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20220,28 +20416,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1008383869059217</v>
+        <v>0.1050591335935456</v>
       </c>
       <c r="J4" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006763698679804864</v>
+        <v>0.007456932157060114</v>
       </c>
       <c r="M4" t="n">
-        <v>7.550967763838524</v>
+        <v>7.537331818858354</v>
       </c>
       <c r="N4" t="n">
-        <v>87.9249401808799</v>
+        <v>87.55145298079549</v>
       </c>
       <c r="O4" t="n">
-        <v>9.376829964379214</v>
+        <v>9.356893340248968</v>
       </c>
       <c r="P4" t="n">
-        <v>380.5835628471163</v>
+        <v>380.544059031919</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20298,28 +20494,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05839951126150718</v>
+        <v>0.07454461202318673</v>
       </c>
       <c r="J5" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003902748667247602</v>
+        <v>0.006371546304340447</v>
       </c>
       <c r="M5" t="n">
-        <v>5.399886798895126</v>
+        <v>5.42092879661273</v>
       </c>
       <c r="N5" t="n">
-        <v>50.97825991129231</v>
+        <v>51.38434050408179</v>
       </c>
       <c r="O5" t="n">
-        <v>7.139906155636242</v>
+        <v>7.168287138785792</v>
       </c>
       <c r="P5" t="n">
-        <v>383.662517184758</v>
+        <v>383.5118632107213</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20376,28 +20572,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01437858875985399</v>
+        <v>-0.005157638324953451</v>
       </c>
       <c r="J6" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002359985517476071</v>
+        <v>3.081742962174339e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>5.484271995201867</v>
+        <v>5.475237262763529</v>
       </c>
       <c r="N6" t="n">
-        <v>51.47740764530203</v>
+        <v>51.35434599816767</v>
       </c>
       <c r="O6" t="n">
-        <v>7.174775790594577</v>
+        <v>7.166194666499624</v>
       </c>
       <c r="P6" t="n">
-        <v>383.9693497367639</v>
+        <v>383.883192691416</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20454,28 +20650,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08400939909007471</v>
+        <v>-0.07805711557835909</v>
       </c>
       <c r="J7" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007737636348535082</v>
+        <v>0.006806402646167387</v>
       </c>
       <c r="M7" t="n">
-        <v>5.705573990852551</v>
+        <v>5.683892227077765</v>
       </c>
       <c r="N7" t="n">
-        <v>53.62106929626908</v>
+        <v>53.29258513536526</v>
       </c>
       <c r="O7" t="n">
-        <v>7.322640868994538</v>
+        <v>7.30017706191879</v>
       </c>
       <c r="P7" t="n">
-        <v>386.550881523581</v>
+        <v>386.4951301745952</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20513,7 +20709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H485"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39419,6 +39615,208 @@
         </is>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.98479346859466,173.4486295121226</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.98587966947623,173.44837987876525</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.98611955127441,173.44912522426995</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-34.98616527718214,173.4499215930519</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-34.98616859959897,173.45074711836946</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-34.986047481792134,173.45157983481718</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-34.98599833077593,173.44826308312693</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-34.98627668052845,173.44906151182042</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-34.98627453229562,173.44991703736474</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-34.986248275638644,173.450763757203</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-34.98608693816393,173.4515932096029</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-34.98599010383449,173.44827118073405</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-34.986234568409245,173.44907858738162</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-34.986250543767376,173.44991803763216</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-34.986265846049676,173.45076742645546</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-34.98605738339131,173.45158319122604</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-34.98483447096428,173.44857173352386</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-34.98593724360879,173.44832320990218</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-34.98621238612741,173.44908758181387</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-34.98624380815445,173.4499183184919</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-34.986231364583716,173.45076022564626</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-34.98601175233642,173.45156772338046</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-34.98490365736483,173.44847423910448</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.985903420107775,173.44835650159058</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.98613164033459,173.4491203224315</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-34.9861575335636,173.44992191594258</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-34.986170245122935,173.45074746200567</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-34.98598997513371,173.45156034143156</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14405,6 +14405,34 @@
       <c r="H490" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="n">
+        <v>365.928275862069</v>
+      </c>
+      <c r="D491" t="n">
+        <v>372.01</v>
+      </c>
+      <c r="E491" t="n">
+        <v>379.5911111111111</v>
+      </c>
+      <c r="F491" t="n">
+        <v>376.851935483871</v>
+      </c>
+      <c r="G491" t="n">
+        <v>371.48</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20087,6 +20115,16 @@
       </c>
       <c r="B566" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -20263,7 +20301,7 @@
         <v>0.1113517325038382</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K2" t="n">
         <v>283</v>
@@ -20338,28 +20376,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07267394329132466</v>
+        <v>0.0700573825210374</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006453583889677761</v>
+        <v>0.006016350762615752</v>
       </c>
       <c r="M3" t="n">
-        <v>5.583534176975964</v>
+        <v>5.585346637046418</v>
       </c>
       <c r="N3" t="n">
-        <v>48.43571330427508</v>
+        <v>48.4187441848074</v>
       </c>
       <c r="O3" t="n">
-        <v>6.959577092343692</v>
+        <v>6.958357865531738</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4483893852449</v>
+        <v>370.4728689050469</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20416,28 +20454,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1050591335935456</v>
+        <v>0.1004700667576603</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007456932157060114</v>
+        <v>0.006833439999734847</v>
       </c>
       <c r="M4" t="n">
-        <v>7.537331818858354</v>
+        <v>7.542645741400816</v>
       </c>
       <c r="N4" t="n">
-        <v>87.55145298079549</v>
+        <v>87.63538926646963</v>
       </c>
       <c r="O4" t="n">
-        <v>9.356893340248968</v>
+        <v>9.36137753038887</v>
       </c>
       <c r="P4" t="n">
-        <v>380.544059031919</v>
+        <v>380.5871526030267</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20494,28 +20532,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07454461202318673</v>
+        <v>0.07216006480062209</v>
       </c>
       <c r="J5" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006371546304340447</v>
+        <v>0.00599157316050225</v>
       </c>
       <c r="M5" t="n">
-        <v>5.42092879661273</v>
+        <v>5.422542195603046</v>
       </c>
       <c r="N5" t="n">
-        <v>51.38434050408179</v>
+        <v>51.3466652743041</v>
       </c>
       <c r="O5" t="n">
-        <v>7.168287138785792</v>
+        <v>7.16565874671018</v>
       </c>
       <c r="P5" t="n">
-        <v>383.5118632107213</v>
+        <v>383.534181938819</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20572,28 +20610,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005157638324953451</v>
+        <v>-0.007970083044199503</v>
       </c>
       <c r="J6" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K6" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>3.081742962174339e-05</v>
+        <v>7.377493270754876e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>5.475237262763529</v>
+        <v>5.478862004972483</v>
       </c>
       <c r="N6" t="n">
-        <v>51.35434599816767</v>
+        <v>51.34540747841911</v>
       </c>
       <c r="O6" t="n">
-        <v>7.166194666499624</v>
+        <v>7.165570980628069</v>
       </c>
       <c r="P6" t="n">
-        <v>383.883192691416</v>
+        <v>383.90955324823</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20650,28 +20688,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07805711557835909</v>
+        <v>-0.08331208775211561</v>
       </c>
       <c r="J7" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K7" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006806402646167387</v>
+        <v>0.007727574866403519</v>
       </c>
       <c r="M7" t="n">
-        <v>5.683892227077765</v>
+        <v>5.702153852949079</v>
       </c>
       <c r="N7" t="n">
-        <v>53.29258513536526</v>
+        <v>53.54475257362199</v>
       </c>
       <c r="O7" t="n">
-        <v>7.30017706191879</v>
+        <v>7.317428002626468</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4951301745952</v>
+        <v>386.5444659968005</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20709,7 +20747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30413,7 +30451,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-34.9853938670025,173.44778344949094</t>
+          <t>-34.98539386700249,173.44778344949094</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -32151,7 +32189,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-34.984932411661255,173.4484337197396</t>
+          <t>-34.98493241166125,173.4484337197396</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34074,7 +34112,7 @@
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-34.985989154293186,173.44827211534763</t>
+          <t>-34.98598915429319,173.44827211534763</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -39817,6 +39855,44 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-34.98600851237024,173.4482530615927</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-34.98630824323223,173.44904871380888</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-34.98633988910204,173.4499143121311</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-34.98631696622646,173.45077810195988</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-34.986176281532565,173.45162349496235</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H491"/>
+  <dimension ref="A1:H494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14431,6 +14431,90 @@
         <v>371.48</v>
       </c>
       <c r="H491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="n">
+        <v>388.8933333333333</v>
+      </c>
+      <c r="E492" t="n">
+        <v>390.612962962963</v>
+      </c>
+      <c r="F492" t="n">
+        <v>386.2929032258065</v>
+      </c>
+      <c r="G492" t="n">
+        <v>389.6181818181818</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>378.5631034482759</v>
+      </c>
+      <c r="D493" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="E493" t="n">
+        <v>392.6240740740741</v>
+      </c>
+      <c r="F493" t="n">
+        <v>387.1583870967742</v>
+      </c>
+      <c r="G493" t="n">
+        <v>383.26</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>457.8952631578948</v>
+      </c>
+      <c r="C494" t="n">
+        <v>380.4772413793103</v>
+      </c>
+      <c r="D494" t="n">
+        <v>385.1366666666667</v>
+      </c>
+      <c r="E494" t="n">
+        <v>387.1470370370371</v>
+      </c>
+      <c r="F494" t="n">
+        <v>381.6254838709677</v>
+      </c>
+      <c r="G494" t="n">
+        <v>386.9145454545454</v>
+      </c>
+      <c r="H494" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14447,7 +14531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20125,6 +20209,36 @@
       </c>
       <c r="B567" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -20298,28 +20412,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1113517325038382</v>
+        <v>0.1375513240586281</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004138051447405422</v>
+        <v>0.0006342745497512903</v>
       </c>
       <c r="M2" t="n">
-        <v>40.33578643349926</v>
+        <v>40.34277874745661</v>
       </c>
       <c r="N2" t="n">
-        <v>1789.812971046663</v>
+        <v>1788.847394491629</v>
       </c>
       <c r="O2" t="n">
-        <v>42.30618123923102</v>
+        <v>42.29476793282627</v>
       </c>
       <c r="P2" t="n">
-        <v>415.8608253644534</v>
+        <v>415.6186873233101</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20376,28 +20490,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0700573825210374</v>
+        <v>0.07591068470829031</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006016350762615752</v>
+        <v>0.007086895322102382</v>
       </c>
       <c r="M3" t="n">
-        <v>5.585346637046418</v>
+        <v>5.592099644064911</v>
       </c>
       <c r="N3" t="n">
-        <v>48.4187441848074</v>
+        <v>48.43666325947369</v>
       </c>
       <c r="O3" t="n">
-        <v>6.958357865531738</v>
+        <v>6.959645340063938</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4728689050469</v>
+        <v>370.4180116222281</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20454,28 +20568,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1004700667576603</v>
+        <v>0.1043929644526592</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006833439999734847</v>
+        <v>0.007465005979649164</v>
       </c>
       <c r="M4" t="n">
-        <v>7.542645741400816</v>
+        <v>7.516583447889448</v>
       </c>
       <c r="N4" t="n">
-        <v>87.63538926646963</v>
+        <v>87.14941775190483</v>
       </c>
       <c r="O4" t="n">
-        <v>9.36137753038887</v>
+        <v>9.335385249249484</v>
       </c>
       <c r="P4" t="n">
-        <v>380.5871526030267</v>
+        <v>380.5502862435331</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20532,28 +20646,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07216006480062209</v>
+        <v>0.07783435793880786</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00599157316050225</v>
+        <v>0.007034695007123504</v>
       </c>
       <c r="M5" t="n">
-        <v>5.422542195603046</v>
+        <v>5.416098864808231</v>
       </c>
       <c r="N5" t="n">
-        <v>51.3466652743041</v>
+        <v>51.18966299616923</v>
       </c>
       <c r="O5" t="n">
-        <v>7.16565874671018</v>
+        <v>7.154695171435973</v>
       </c>
       <c r="P5" t="n">
-        <v>383.534181938819</v>
+        <v>383.481025199904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20610,28 +20724,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.007970083044199503</v>
+        <v>-0.00638498299177314</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K6" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L6" t="n">
-        <v>7.377493270754876e-05</v>
+        <v>4.794615731606999e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>5.478862004972483</v>
+        <v>5.460431838790777</v>
       </c>
       <c r="N6" t="n">
-        <v>51.34540747841911</v>
+        <v>51.06085228801739</v>
       </c>
       <c r="O6" t="n">
-        <v>7.165570980628069</v>
+        <v>7.145687670757614</v>
       </c>
       <c r="P6" t="n">
-        <v>383.90955324823</v>
+        <v>383.8946983477653</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20688,28 +20802,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08331208775211561</v>
+        <v>-0.08068054675732128</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K7" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007727574866403519</v>
+        <v>0.007336244531124136</v>
       </c>
       <c r="M7" t="n">
-        <v>5.702153852949079</v>
+        <v>5.682998226191672</v>
       </c>
       <c r="N7" t="n">
-        <v>53.54475257362199</v>
+        <v>53.26922462699313</v>
       </c>
       <c r="O7" t="n">
-        <v>7.317428002626468</v>
+        <v>7.298576890530998</v>
       </c>
       <c r="P7" t="n">
-        <v>386.5444659968005</v>
+        <v>386.5197405627579</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20747,7 +20861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H491"/>
+  <dimension ref="A1:H494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39893,6 +40007,120 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-34.98616383030751,173.44910727012368</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-34.98624056050758,173.44991845391138</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-34.98623306457619,173.45076058065777</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-34.98601874030743,173.45157009213577</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-34.98591998272764,173.44834019939213</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-34.9861942810511,173.44909492302426</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-34.986222436435085,173.44991920964372</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-34.98622537304192,173.4507589744255</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-34.98607396501647,173.4515888120083</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-34.984923650249016,173.44844606596425</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-34.98590657075074,173.44835340048726</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-34.986195963255064,173.44909424092765</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-34.986271795327035,173.4499171514902</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-34.98627454381876,173.45076924282287</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-34.986042223048024,173.45157805222712</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H494"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14515,6 +14515,150 @@
         <v>386.9145454545454</v>
       </c>
       <c r="H494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>461.5368421052632</v>
+      </c>
+      <c r="C495" t="n">
+        <v>386.3210344827586</v>
+      </c>
+      <c r="D495" t="n">
+        <v>391.0866666666667</v>
+      </c>
+      <c r="E495" t="n">
+        <v>395.6114814814815</v>
+      </c>
+      <c r="F495" t="n">
+        <v>388.7425806451613</v>
+      </c>
+      <c r="G495" t="n">
+        <v>391.21</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>370.3496551724138</v>
+      </c>
+      <c r="D496" t="n">
+        <v>379.6866666666667</v>
+      </c>
+      <c r="E496" t="n">
+        <v>390.037037037037</v>
+      </c>
+      <c r="F496" t="n">
+        <v>385.8170967741936</v>
+      </c>
+      <c r="G496" t="n">
+        <v>381.7218181818182</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="n">
+        <v>375.4096551724138</v>
+      </c>
+      <c r="D497" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="E497" t="n">
+        <v>386.1588888888889</v>
+      </c>
+      <c r="F497" t="n">
+        <v>380.4261290322581</v>
+      </c>
+      <c r="G497" t="n">
+        <v>388.4654545454546</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>373.0848275862069</v>
+      </c>
+      <c r="D498" t="n">
+        <v>367.3533333333333</v>
+      </c>
+      <c r="E498" t="n">
+        <v>378.0985185185185</v>
+      </c>
+      <c r="F498" t="n">
+        <v>369.8035483870968</v>
+      </c>
+      <c r="G498" t="n">
+        <v>375.710909090909</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>461.1842105263158</v>
+      </c>
+      <c r="C499" t="n">
+        <v>374.6324137931034</v>
+      </c>
+      <c r="D499" t="n">
+        <v>386.3633333333333</v>
+      </c>
+      <c r="E499" t="n">
+        <v>385.692962962963</v>
+      </c>
+      <c r="F499" t="n">
+        <v>383.6248387096774</v>
+      </c>
+      <c r="G499" t="n">
+        <v>387.2327272727272</v>
+      </c>
+      <c r="H499" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14531,7 +14675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20239,6 +20383,56 @@
       </c>
       <c r="B570" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -20412,28 +20606,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1375513240586281</v>
+        <v>0.1929754127366342</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006342745497512903</v>
+        <v>0.001258061053172277</v>
       </c>
       <c r="M2" t="n">
-        <v>40.34277874745661</v>
+        <v>40.37252383720571</v>
       </c>
       <c r="N2" t="n">
-        <v>1788.847394491629</v>
+        <v>1788.50224780351</v>
       </c>
       <c r="O2" t="n">
-        <v>42.29476793282627</v>
+        <v>42.29068748322153</v>
       </c>
       <c r="P2" t="n">
-        <v>415.6186873233101</v>
+        <v>415.1053091655033</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20490,28 +20684,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07591068470829031</v>
+        <v>0.08291820170372492</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K3" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007086895322102382</v>
+        <v>0.008552083497994634</v>
       </c>
       <c r="M3" t="n">
-        <v>5.592099644064911</v>
+        <v>5.577960200308826</v>
       </c>
       <c r="N3" t="n">
-        <v>48.43666325947369</v>
+        <v>48.3693224321422</v>
       </c>
       <c r="O3" t="n">
-        <v>6.959645340063938</v>
+        <v>6.954805707720539</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4180116222281</v>
+        <v>370.3522485803704</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20568,28 +20762,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1043929644526592</v>
+        <v>0.1000768726380226</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007465005979649164</v>
+        <v>0.006956165150899696</v>
       </c>
       <c r="M4" t="n">
-        <v>7.516583447889448</v>
+        <v>7.504186194629203</v>
       </c>
       <c r="N4" t="n">
-        <v>87.14941775190483</v>
+        <v>86.94720981771138</v>
       </c>
       <c r="O4" t="n">
-        <v>9.335385249249484</v>
+        <v>9.324548772874287</v>
       </c>
       <c r="P4" t="n">
-        <v>380.5502862435331</v>
+        <v>380.5910906565236</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20646,28 +20840,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07783435793880786</v>
+        <v>0.08096486164318911</v>
       </c>
       <c r="J5" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K5" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007034695007123504</v>
+        <v>0.007718879801518863</v>
       </c>
       <c r="M5" t="n">
-        <v>5.416098864808231</v>
+        <v>5.406119557499949</v>
       </c>
       <c r="N5" t="n">
-        <v>51.18966299616923</v>
+        <v>51.02329406104082</v>
       </c>
       <c r="O5" t="n">
-        <v>7.154695171435973</v>
+        <v>7.143059152844867</v>
       </c>
       <c r="P5" t="n">
-        <v>383.481025199904</v>
+        <v>383.4517279875956</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20724,28 +20918,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00638498299177314</v>
+        <v>-0.01039216542689832</v>
       </c>
       <c r="J6" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K6" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L6" t="n">
-        <v>4.794615731606999e-05</v>
+        <v>0.0001285467247886807</v>
       </c>
       <c r="M6" t="n">
-        <v>5.460431838790777</v>
+        <v>5.455243080780111</v>
       </c>
       <c r="N6" t="n">
-        <v>51.06085228801739</v>
+        <v>51.01437995741463</v>
       </c>
       <c r="O6" t="n">
-        <v>7.145687670757614</v>
+        <v>7.142435155982491</v>
       </c>
       <c r="P6" t="n">
-        <v>383.8946983477653</v>
+        <v>383.9325314005726</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20802,28 +20996,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08068054675732128</v>
+        <v>-0.0798393576918609</v>
       </c>
       <c r="J7" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K7" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007336244531124136</v>
+        <v>0.007295115707485977</v>
       </c>
       <c r="M7" t="n">
-        <v>5.682998226191672</v>
+        <v>5.675308390513812</v>
       </c>
       <c r="N7" t="n">
-        <v>53.26922462699313</v>
+        <v>53.02473115109324</v>
       </c>
       <c r="O7" t="n">
-        <v>7.298576890530998</v>
+        <v>7.281808233611569</v>
       </c>
       <c r="P7" t="n">
-        <v>386.5197405627579</v>
+        <v>386.5118833649084</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20861,7 +21055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H494"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40121,6 +40315,204 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-34.98490220694296,173.4484762829777</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-34.985865624466875,173.4483937029213</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-34.98614506945546,173.44911487722723</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-34.986195514009815,173.44992033224673</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-34.98621129435201,173.4507560343567</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-34.98600491438958,173.45156540548018</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-34.98597753268035,173.44828355425514</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-34.986242580261504,173.44907533874877</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-34.98624575073459,173.44991823749072</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-34.98623729305663,173.4507614636965</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-34.9860873250685,173.45159334075453</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-34.98594207829805,173.4483184512266</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-34.986233228348546,173.4490791307472</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-34.98628070048819,173.449916780165</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-34.98628520245595,173.45077146868164</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-34.98602875245111,173.4515734860141</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-34.98595836788942,173.44830241774378</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-34.98634807439293,173.44903256309755</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-34.986353340301065,173.4499137512455</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-34.98637960506826,173.45079118294362</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-34.98613953349678,173.45161103820985</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-34.98490428340161,173.44847335691986</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-34.985947524269655,173.44831309087868</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-34.9861854708642,173.44909849536012</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-34.98628489939851,173.44991660507986</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-34.98625677560093,173.4507655322613</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-34.98603945944376,173.45157711543067</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14661,6 +14661,120 @@
       <c r="H499" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="n">
+        <v>378.0027586206896</v>
+      </c>
+      <c r="D500" t="n">
+        <v>394.4333333333333</v>
+      </c>
+      <c r="E500" t="n">
+        <v>384.7785185185185</v>
+      </c>
+      <c r="F500" t="n">
+        <v>394.4216129032258</v>
+      </c>
+      <c r="G500" t="n">
+        <v>386.4163636363636</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="n">
+        <v>367.6306896551724</v>
+      </c>
+      <c r="D501" t="n">
+        <v>375.63</v>
+      </c>
+      <c r="E501" t="n">
+        <v>385.1666666666667</v>
+      </c>
+      <c r="F501" t="n">
+        <v>381.4406451612903</v>
+      </c>
+      <c r="G501" t="n">
+        <v>379.8081818181818</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>460.138947368421</v>
+      </c>
+      <c r="C502" t="n">
+        <v>375.1037931034483</v>
+      </c>
+      <c r="D502" t="n">
+        <v>390.7233333333333</v>
+      </c>
+      <c r="E502" t="n">
+        <v>384.5862962962963</v>
+      </c>
+      <c r="F502" t="n">
+        <v>388.7361290322581</v>
+      </c>
+      <c r="G502" t="n">
+        <v>393.1690909090909</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="n">
+        <v>373.2520689655173</v>
+      </c>
+      <c r="D503" t="n">
+        <v>384.19</v>
+      </c>
+      <c r="E503" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="F503" t="n">
+        <v>382.911935483871</v>
+      </c>
+      <c r="G503" t="n">
+        <v>386.6645454545454</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20433,6 +20547,56 @@
       </c>
       <c r="B575" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -20606,28 +20770,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1929754127366342</v>
+        <v>0.219134662299732</v>
       </c>
       <c r="J2" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001258061053172277</v>
+        <v>0.001628830174692286</v>
       </c>
       <c r="M2" t="n">
-        <v>40.37252383720571</v>
+        <v>40.37769547884071</v>
       </c>
       <c r="N2" t="n">
-        <v>1788.50224780351</v>
+        <v>1787.787877027203</v>
       </c>
       <c r="O2" t="n">
-        <v>42.29068748322153</v>
+        <v>42.2822406812506</v>
       </c>
       <c r="P2" t="n">
-        <v>415.1053091655033</v>
+        <v>414.8621846065783</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20684,28 +20848,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08291820170372492</v>
+        <v>0.0844383804785388</v>
       </c>
       <c r="J3" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K3" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008552083497994634</v>
+        <v>0.008995078189030226</v>
       </c>
       <c r="M3" t="n">
-        <v>5.577960200308826</v>
+        <v>5.559334047970896</v>
       </c>
       <c r="N3" t="n">
-        <v>48.3693224321422</v>
+        <v>48.08662176845355</v>
       </c>
       <c r="O3" t="n">
-        <v>6.954805707720539</v>
+        <v>6.934451800139183</v>
       </c>
       <c r="P3" t="n">
-        <v>370.3522485803704</v>
+        <v>370.337928770905</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20762,28 +20926,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1000768726380226</v>
+        <v>0.1047346432579462</v>
       </c>
       <c r="J4" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K4" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006956165150899696</v>
+        <v>0.007697986885377373</v>
       </c>
       <c r="M4" t="n">
-        <v>7.504186194629203</v>
+        <v>7.500532920263185</v>
       </c>
       <c r="N4" t="n">
-        <v>86.94720981771138</v>
+        <v>86.71702509246595</v>
       </c>
       <c r="O4" t="n">
-        <v>9.324548772874287</v>
+        <v>9.312197651063144</v>
       </c>
       <c r="P4" t="n">
-        <v>380.5910906565236</v>
+        <v>380.5470319742717</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20840,28 +21004,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08096486164318911</v>
+        <v>0.08123435240568463</v>
       </c>
       <c r="J5" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007718879801518863</v>
+        <v>0.007900554027816531</v>
       </c>
       <c r="M5" t="n">
-        <v>5.406119557499949</v>
+        <v>5.370951255017531</v>
       </c>
       <c r="N5" t="n">
-        <v>51.02329406104082</v>
+        <v>50.6133192111601</v>
       </c>
       <c r="O5" t="n">
-        <v>7.143059152844867</v>
+        <v>7.114303845855903</v>
       </c>
       <c r="P5" t="n">
-        <v>383.4517279875956</v>
+        <v>383.4491700026098</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20918,28 +21082,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01039216542689832</v>
+        <v>-0.00548358725852748</v>
       </c>
       <c r="J6" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K6" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001285467247886807</v>
+        <v>3.619051045788968e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>5.455243080780111</v>
+        <v>5.447732896482058</v>
       </c>
       <c r="N6" t="n">
-        <v>51.01437995741463</v>
+        <v>50.8907665597668</v>
       </c>
       <c r="O6" t="n">
-        <v>7.142435155982491</v>
+        <v>7.133776458494252</v>
       </c>
       <c r="P6" t="n">
-        <v>383.9325314005726</v>
+        <v>383.8861966058275</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20996,28 +21160,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0798393576918609</v>
+        <v>-0.07668159357862739</v>
       </c>
       <c r="J7" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K7" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007295115707485977</v>
+        <v>0.006817380732685341</v>
       </c>
       <c r="M7" t="n">
-        <v>5.675308390513812</v>
+        <v>5.662611289956824</v>
       </c>
       <c r="N7" t="n">
-        <v>53.02473115109324</v>
+        <v>52.79740738897816</v>
       </c>
       <c r="O7" t="n">
-        <v>7.281808233611569</v>
+        <v>7.266182449469471</v>
       </c>
       <c r="P7" t="n">
-        <v>386.5118833649084</v>
+        <v>386.4819856432853</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21055,7 +21219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40513,6 +40677,162 @@
         </is>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-34.98592390895011,173.4483363349021</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-34.98611644347353,173.44912648441212</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-34.98629314034409,173.44991626145085</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-34.98616082492819,173.45074549477837</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-34.98604655006271,173.45157951898287</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-34.98599658390999,173.44826480253087</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-34.98627727927893,173.4490612690398</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-34.98628964236476,173.4499164073088</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-34.98627618647587,173.4507695858613</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-34.98610394617313,173.4515989749238</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-34.98491043839649,173.44846468355945</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-34.985944221411124,173.4483163418085</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-34.98614817725621,173.4491136170842</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-34.98629487264492,173.4499161892178</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-34.986211351687345,173.4507560463301</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-34.98598789848238,173.45155963749684</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-34.985957196063346,173.4483035711464</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-34.98620406064356,173.44909095761494</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-34.986260503662784,173.4499176223271</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-34.986263111154585,173.45076685532356</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-34.986044394451376,173.45157878828155</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14756,7 +14756,9 @@
           <t>2025-08-09 22:11:25+00:00</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr"/>
+      <c r="B503" t="n">
+        <v>380.2621052631579</v>
+      </c>
       <c r="C503" t="n">
         <v>373.2520689655173</v>
       </c>
@@ -14773,6 +14775,36 @@
         <v>386.6645454545454</v>
       </c>
       <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>366.3605263157895</v>
+      </c>
+      <c r="C504" t="n">
+        <v>362.9993103448276</v>
+      </c>
+      <c r="D504" t="n">
+        <v>366.73</v>
+      </c>
+      <c r="E504" t="n">
+        <v>377.0277777777778</v>
+      </c>
+      <c r="F504" t="n">
+        <v>374.1922580645162</v>
+      </c>
+      <c r="G504" t="n">
+        <v>401.7309090909091</v>
+      </c>
+      <c r="H504" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14789,7 +14821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20597,6 +20629,16 @@
       </c>
       <c r="B580" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -20770,28 +20812,28 @@
         <v>0.1045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.219134662299732</v>
+        <v>0.158415969159075</v>
       </c>
       <c r="J2" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001628830174692286</v>
+        <v>0.0008571375082088162</v>
       </c>
       <c r="M2" t="n">
-        <v>40.37769547884071</v>
+        <v>40.40352163006224</v>
       </c>
       <c r="N2" t="n">
-        <v>1787.787877027203</v>
+        <v>1790.876188248418</v>
       </c>
       <c r="O2" t="n">
-        <v>42.2822406812506</v>
+        <v>42.31874511665507</v>
       </c>
       <c r="P2" t="n">
-        <v>414.8621846065783</v>
+        <v>415.4278370924528</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20848,28 +20890,28 @@
         <v>0.1701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0844383804785388</v>
+        <v>0.08076076086222778</v>
       </c>
       <c r="J3" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008995078189030226</v>
+        <v>0.00823721323964044</v>
       </c>
       <c r="M3" t="n">
-        <v>5.559334047970896</v>
+        <v>5.568375854253937</v>
       </c>
       <c r="N3" t="n">
-        <v>48.08662176845355</v>
+        <v>48.17695545087523</v>
       </c>
       <c r="O3" t="n">
-        <v>6.934451800139183</v>
+        <v>6.940962141582046</v>
       </c>
       <c r="P3" t="n">
-        <v>370.337928770905</v>
+        <v>370.3727342298423</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20926,28 +20968,28 @@
         <v>0.1358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1047346432579462</v>
+        <v>0.09840730197396139</v>
       </c>
       <c r="J4" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007697986885377373</v>
+        <v>0.006785398088719474</v>
       </c>
       <c r="M4" t="n">
-        <v>7.500532920263185</v>
+        <v>7.516847880635188</v>
       </c>
       <c r="N4" t="n">
-        <v>86.71702509246595</v>
+        <v>87.11322419435902</v>
       </c>
       <c r="O4" t="n">
-        <v>9.312197651063144</v>
+        <v>9.333446533535135</v>
       </c>
       <c r="P4" t="n">
-        <v>380.5470319742717</v>
+        <v>380.607148745248</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21004,28 +21046,28 @@
         <v>0.1529</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08123435240568463</v>
+        <v>0.07797140783688561</v>
       </c>
       <c r="J5" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K5" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007900554027816531</v>
+        <v>0.007292156995019727</v>
       </c>
       <c r="M5" t="n">
-        <v>5.370951255017531</v>
+        <v>5.378369111072524</v>
       </c>
       <c r="N5" t="n">
-        <v>50.6133192111601</v>
+        <v>50.65934775703009</v>
       </c>
       <c r="O5" t="n">
-        <v>7.114303845855903</v>
+        <v>7.117538040434353</v>
       </c>
       <c r="P5" t="n">
-        <v>383.4491700026098</v>
+        <v>383.4800625291986</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21082,28 +21124,28 @@
         <v>0.194</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00548358725852748</v>
+        <v>-0.009133426694417072</v>
       </c>
       <c r="J6" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K6" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L6" t="n">
-        <v>3.619051045788968e-05</v>
+        <v>0.0001004392609430527</v>
       </c>
       <c r="M6" t="n">
-        <v>5.447732896482058</v>
+        <v>5.457049924521785</v>
       </c>
       <c r="N6" t="n">
-        <v>50.8907665597668</v>
+        <v>50.97516141487674</v>
       </c>
       <c r="O6" t="n">
-        <v>7.133776458494252</v>
+        <v>7.139689167945391</v>
       </c>
       <c r="P6" t="n">
-        <v>383.8861966058275</v>
+        <v>383.9208053807862</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21160,28 +21202,28 @@
         <v>0.1258</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07668159357862739</v>
+        <v>-0.07013832590729147</v>
       </c>
       <c r="J7" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K7" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006817380732685341</v>
+        <v>0.005665933042891313</v>
       </c>
       <c r="M7" t="n">
-        <v>5.662611289956824</v>
+        <v>5.683790040088119</v>
       </c>
       <c r="N7" t="n">
-        <v>52.79740738897816</v>
+        <v>53.31746638603408</v>
       </c>
       <c r="O7" t="n">
-        <v>7.266182449469471</v>
+        <v>7.301881016973235</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4819856432853</v>
+        <v>386.4198196081667</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21219,7 +21261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40801,7 +40843,11 @@
           <t>2025-08-09 22:11:25+00:00</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr"/>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-34.985380788515215,173.4478018795054</t>
+        </is>
+      </c>
       <c r="C503" t="inlineStr">
         <is>
           <t>-34.985957196063346,173.4483035711464</t>
@@ -40828,6 +40874,48 @@
         </is>
       </c>
       <c r="H503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-34.985462646783276,173.447686525861</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-34.98602903502132,173.44823286155864</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-34.98635340612294,173.44903040119016</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-34.986362989784006,173.44991334888306</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-34.986340602714165,173.45078303800832</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-34.98591353383151,173.45153442969823</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0039/nzd0039.xlsx
+++ b/data/nzd0039/nzd0039.xlsx
@@ -20803,13 +20803,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0196</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1045</v>
+        <v>0.0214</v>
       </c>
       <c r="I2" t="n">
         <v>0.1584226675828957</v>
@@ -20881,13 +20881,13 @@
         <v>0.1977898052961295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.145</v>
+        <v>0.18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1268</v>
+        <v>0.1446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1701</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.08075752405847607</v>
@@ -20959,13 +20959,13 @@
         <v>0.3991645817879323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1058</v>
+        <v>0.1168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1358</v>
+        <v>0.1803</v>
       </c>
       <c r="I4" t="n">
         <v>0.09840712350042735</v>
@@ -21037,13 +21037,13 @@
         <v>0.6012616060096793</v>
       </c>
       <c r="F5" t="n">
-        <v>0.135</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1184</v>
+        <v>0.1572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1529</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.07798180851223412</v>
@@ -21115,13 +21115,13 @@
         <v>0.8030315689040819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1268</v>
+        <v>0.1769</v>
       </c>
       <c r="H6" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.009145968781589658</v>
@@ -21193,13 +21193,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.099</v>
+        <v>0.1439</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1258</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.07012412588876753</v>
